--- a/総合テスト/3. 注文機能/ST-O-009_結果.xlsx
+++ b/総合テスト/3. 注文機能/ST-O-009_結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/aoi_yaegashi_avantcorp_com/Documents/ドキュメント/研修/IT研修/システム開発模擬演習/総合テスト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\3. 注文機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D066CA252ABDACC10480FD913EE5A73EEDF63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABF9B74E-2144-4069-AC3D-D9EEAE059DF2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F783F420-6FA1-40AB-8E8E-BD5E3488E9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実施前" sheetId="1" r:id="rId1"/>
@@ -298,6 +298,123 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12116423" cy="3854648"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CC7F2C-2E77-402B-80C8-9FD649816CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="42291000"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11983066" cy="3264068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{806894D1-67F6-4A3A-B91D-E9E277A5688F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="46405800"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>38746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12141824" cy="5131064"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73B6722-8C3D-49F2-9000-226FF7CB8AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="49873546"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -791,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B138" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -807,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4836797-9588-4D1C-AC5D-FEFC76AD05B9}">
   <dimension ref="C3:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="41" zoomScaleNormal="14" workbookViewId="0">
+    <sheetView topLeftCell="A176" zoomScale="41" zoomScaleNormal="14" workbookViewId="0">
       <selection activeCell="AG205" sqref="AG205"/>
     </sheetView>
   </sheetViews>

--- a/総合テスト/3. 注文機能/ST-O-009_結果.xlsx
+++ b/総合テスト/3. 注文機能/ST-O-009_結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\3. 注文機能\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoi.yaegashi\Downloads\研修\研修会\IT外部研修\workspace\teamF\総合テスト\3. 注文機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F783F420-6FA1-40AB-8E8E-BD5E3488E9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2DF863-D9D3-4C97-A8E4-09888F7A9F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2210" yWindow="440" windowWidth="8930" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実施前" sheetId="1" r:id="rId1"/>
@@ -376,20 +376,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>38746</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="12141824" cy="5131064"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73B6722-8C3D-49F2-9000-226FF7CB8AC6}"/>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>507443</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>71957</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D857162A-A85F-4290-9965-E225CC1282D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -405,16 +410,16 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="49873546"/>
-          <a:ext cx="12141824" cy="5131064"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
+          <a:off x="1315357" y="50346429"/>
+          <a:ext cx="18264765" cy="9370171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -467,50 +472,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14381</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>12168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>416976</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>89656</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E2B1BA-73C6-E119-7F30-41ACB189E8C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1346332" y="21617656"/>
-          <a:ext cx="18383937" cy="9370171"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>35400</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>13275</xdr:rowOff>
@@ -535,7 +496,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -579,7 +540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -623,7 +584,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -640,6 +601,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>216829</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11983066" cy="3264068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D719EDE8-E22D-45BF-9E06-EEA5E1F5E370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1331951" y="26004024"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12116423" cy="3854648"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B446FE02-310D-4F62-98EF-7A2641F97245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1331951" y="21605488"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -908,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView topLeftCell="D186" zoomScale="56" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -924,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4836797-9588-4D1C-AC5D-FEFC76AD05B9}">
   <dimension ref="C3:C183"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScale="41" zoomScaleNormal="14" workbookViewId="0">
-      <selection activeCell="AG205" sqref="AG205"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="41" zoomScaleNormal="14" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
